--- a/output/student_ids.xlsx
+++ b/output/student_ids.xlsx
@@ -412,7 +412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>680b732657a854bf00f281df</v>
+        <v>680f0fd2e45ba039a88ef791</v>
       </c>
       <c r="B2" t="str">
         <v>REUBEN REPSOL</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>680b732657a854bf00f28207</v>
+        <v>680f0fd2e45ba039a88ef7b9</v>
       </c>
       <c r="B3" t="str">
         <v>JOHAN JESWIN</v>
@@ -428,10 +428,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>680b732657a854bf00f2822f</v>
+        <v>680f0fd2e45ba039a88ef7e1</v>
       </c>
       <c r="B4" t="str">
-        <v>SIYA SANAL</v>
+        <v>ARUN K B</v>
       </c>
     </row>
   </sheetData>

--- a/output/student_ids.xlsx
+++ b/output/student_ids.xlsx
@@ -412,7 +412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>680f0fd2e45ba039a88ef791</v>
+        <v>680f47f1a3306c3b6e7f996a</v>
       </c>
       <c r="B2" t="str">
         <v>REUBEN REPSOL</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>680f0fd2e45ba039a88ef7b9</v>
+        <v>680f47f1a3306c3b6e7f9992</v>
       </c>
       <c r="B3" t="str">
         <v>JOHAN JESWIN</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>680f0fd2e45ba039a88ef7e1</v>
+        <v>680f47f1a3306c3b6e7f99ba</v>
       </c>
       <c r="B4" t="str">
         <v>ARUN K B</v>

--- a/output/student_ids.xlsx
+++ b/output/student_ids.xlsx
@@ -412,7 +412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>680f47f1a3306c3b6e7f996a</v>
+        <v>680f69dda7775d4878a8370d</v>
       </c>
       <c r="B2" t="str">
         <v>REUBEN REPSOL</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>680f47f1a3306c3b6e7f9992</v>
+        <v>680f69dda7775d4878a83735</v>
       </c>
       <c r="B3" t="str">
         <v>JOHAN JESWIN</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>680f47f1a3306c3b6e7f99ba</v>
+        <v>680f69dda7775d4878a8375d</v>
       </c>
       <c r="B4" t="str">
         <v>ARUN K B</v>

--- a/output/student_ids.xlsx
+++ b/output/student_ids.xlsx
@@ -412,7 +412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>680f69dda7775d4878a8370d</v>
+        <v>6810692cdc110c0f6972b99c</v>
       </c>
       <c r="B2" t="str">
         <v>REUBEN REPSOL</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>680f69dda7775d4878a83735</v>
+        <v>6810692cdc110c0f6972b9c4</v>
       </c>
       <c r="B3" t="str">
         <v>JOHAN JESWIN</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>680f69dda7775d4878a8375d</v>
+        <v>6810692cdc110c0f6972b9ec</v>
       </c>
       <c r="B4" t="str">
         <v>ARUN K B</v>

--- a/output/student_ids.xlsx
+++ b/output/student_ids.xlsx
@@ -412,7 +412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6810692cdc110c0f6972b99c</v>
+        <v>6811d872db06c64332a2ee18</v>
       </c>
       <c r="B2" t="str">
         <v>REUBEN REPSOL</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>6810692cdc110c0f6972b9c4</v>
+        <v>6811d873db06c64332a2ee40</v>
       </c>
       <c r="B3" t="str">
         <v>JOHAN JESWIN</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>6810692cdc110c0f6972b9ec</v>
+        <v>6811d873db06c64332a2ee68</v>
       </c>
       <c r="B4" t="str">
         <v>ARUN K B</v>

--- a/output/student_ids.xlsx
+++ b/output/student_ids.xlsx
@@ -412,7 +412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6810692cdc110c0f6972b99c</v>
+        <v>6812070703240bdeb5127d54</v>
       </c>
       <c r="B2" t="str">
         <v>REUBEN REPSOL</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>6810692cdc110c0f6972b9c4</v>
+        <v>6812070703240bdeb5127d7d</v>
       </c>
       <c r="B3" t="str">
         <v>JOHAN JESWIN</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>6810692cdc110c0f6972b9ec</v>
+        <v>6812070703240bdeb5127da5</v>
       </c>
       <c r="B4" t="str">
         <v>ARUN K B</v>

--- a/output/student_ids.xlsx
+++ b/output/student_ids.xlsx
@@ -412,7 +412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6812070703240bdeb5127d54</v>
+        <v>681858fe0948475fcdd4aaa3</v>
       </c>
       <c r="B2" t="str">
         <v>REUBEN REPSOL</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>6812070703240bdeb5127d7d</v>
+        <v>681858fe0948475fcdd4aacb</v>
       </c>
       <c r="B3" t="str">
         <v>JOHAN JESWIN</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>6812070703240bdeb5127da5</v>
+        <v>681858fe0948475fcdd4aaf3</v>
       </c>
       <c r="B4" t="str">
         <v>ARUN K B</v>

--- a/output/student_ids.xlsx
+++ b/output/student_ids.xlsx
@@ -412,7 +412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>681858fe0948475fcdd4aaa3</v>
+        <v>6818642d3587c07017f0f16b</v>
       </c>
       <c r="B2" t="str">
         <v>REUBEN REPSOL</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>681858fe0948475fcdd4aacb</v>
+        <v>6818642d3587c07017f0f193</v>
       </c>
       <c r="B3" t="str">
         <v>JOHAN JESWIN</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>681858fe0948475fcdd4aaf3</v>
+        <v>6818642d3587c07017f0f1bb</v>
       </c>
       <c r="B4" t="str">
         <v>ARUN K B</v>

--- a/output/student_ids.xlsx
+++ b/output/student_ids.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,36 +407,48 @@
         <v>STUDENT_ID</v>
       </c>
       <c r="B1" t="str">
+        <v>ADMISSION_ID</v>
+      </c>
+      <c r="C1" t="str">
         <v>NAME</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>681895cdee11f44ce830e4e9</v>
+        <v>681b364921ea18e7bb33647f</v>
       </c>
       <c r="B2" t="str">
+        <v>ACT/61/24</v>
+      </c>
+      <c r="C2" t="str">
         <v>REUBEN REPSOL</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>681895ceee11f44ce830e511</v>
+        <v>681b364921ea18e7bb3364b5</v>
       </c>
       <c r="B3" t="str">
-        <v>JOHAN JESWIN</v>
+        <v>ACT/47/24</v>
+      </c>
+      <c r="C3" t="str">
+        <v>AAYUSH VINEESH</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>681895ceee11f44ce830e539</v>
+        <v>681b364921ea18e7bb3364eb</v>
       </c>
       <c r="B4" t="str">
-        <v>ARUN K B</v>
+        <v>ACT/42/24</v>
+      </c>
+      <c r="C4" t="str">
+        <v>JOHAN JESWIN</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output/student_ids.xlsx
+++ b/output/student_ids.xlsx
@@ -415,7 +415,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>681b364921ea18e7bb33647f</v>
+        <v>681b3c0f21ea18e7bb3366be</v>
       </c>
       <c r="B2" t="str">
         <v>ACT/61/24</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>681b364921ea18e7bb3364b5</v>
+        <v>681b3c1021ea18e7bb3366f4</v>
       </c>
       <c r="B3" t="str">
         <v>ACT/47/24</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>681b364921ea18e7bb3364eb</v>
+        <v>681b3c1021ea18e7bb33672a</v>
       </c>
       <c r="B4" t="str">
         <v>ACT/42/24</v>

--- a/output/student_ids.xlsx
+++ b/output/student_ids.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,40 +415,84 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>681b3c0f21ea18e7bb3366be</v>
+        <v>681d8e4f238c4d4c84c925b0</v>
       </c>
       <c r="B2" t="str">
-        <v>ACT/61/24</v>
+        <v>ACT/12/23</v>
       </c>
       <c r="C2" t="str">
-        <v>REUBEN REPSOL</v>
+        <v>ABDHUL FAWWAZ A</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>681b3c1021ea18e7bb3366f4</v>
+        <v>681d8e4f238c4d4c84c925e6</v>
       </c>
       <c r="B3" t="str">
-        <v>ACT/47/24</v>
+        <v>708/14</v>
       </c>
       <c r="C3" t="str">
-        <v>AAYUSH VINEESH</v>
+        <v>BAISIL ELDO</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>681b3c1021ea18e7bb33672a</v>
+        <v>681d8e4f238c4d4c84c9261c</v>
       </c>
       <c r="B4" t="str">
+        <v>ACT/82/25</v>
+      </c>
+      <c r="C4" t="str">
+        <v>EDAN JOHN BASIL</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>681d8e4f238c4d4c84c92652</v>
+      </c>
+      <c r="B5" t="str">
+        <v>ACT/37/23</v>
+      </c>
+      <c r="C5" t="str">
+        <v>AADHIDEV RENIL</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>681d8e50238c4d4c84c92688</v>
+      </c>
+      <c r="B6" t="str">
+        <v>ACT/23/23</v>
+      </c>
+      <c r="C6" t="str">
+        <v>ADINATH P S</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>681d8e50238c4d4c84c926be</v>
+      </c>
+      <c r="B7" t="str">
         <v>ACT/42/24</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C7" t="str">
         <v>JOHAN JESWIN</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>681d8e50238c4d4c84c926f4</v>
+      </c>
+      <c r="B8" t="str">
+        <v>963/18</v>
+      </c>
+      <c r="C8" t="str">
+        <v>KARTHIKNATH P M</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
   </ignoredErrors>
 </worksheet>
 </file>